--- a/results/ejercicio4.xlsx
+++ b/results/ejercicio4.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.229274980326149</v>
+        <v>0.1299572217078198</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1862594665264736</v>
+        <v>0.1078277705427478</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1577387944949273</v>
+        <v>0.07221859330515201</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1403351255856488</v>
+        <v>0.05654472158350232</v>
       </c>
       <c r="C5" t="n">
         <v>2</v>
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.255291193507567</v>
+        <v>0.1277588633555749</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2345081048375599</v>
+        <v>0.1249038267153906</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1480062434730272</v>
+        <v>0.06636440489709031</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -548,10 +548,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1636434825783447</v>
+        <v>0.08036746554517162</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2437610290515964</v>
+        <v>0.1772433055648895</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -574,7 +574,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2926084002465925</v>
+        <v>0.1700562114568257</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1417950789040769</v>
+        <v>0.05831001269103774</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>
@@ -600,10 +600,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1678891559368199</v>
+        <v>0.09228085546918181</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -613,10 +613,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2120389154030815</v>
+        <v>0.123270142683938</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2538665647286545</v>
+        <v>0.1652669518341842</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.255912265509404</v>
+        <v>0.1748656137820481</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -652,10 +652,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2201858391738967</v>
+        <v>0.1083166556028633</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.1635776369893626</v>
+        <v>0.07578099330335455</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -678,7 +678,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.1445497881782059</v>
+        <v>0.06753406744978903</v>
       </c>
       <c r="C19" t="n">
         <v>2</v>
@@ -691,10 +691,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.2618446569488432</v>
+        <v>0.1228717730722009</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1945094160846197</v>
+        <v>0.1140943065109784</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -717,10 +717,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.2138303855578915</v>
+        <v>0.1126651674067496</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -730,10 +730,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.2076857207913978</v>
+        <v>0.1110862561259321</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -743,10 +743,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.2229458300741496</v>
+        <v>0.1240096001905824</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -756,7 +756,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.2514023791275092</v>
+        <v>0.1754319859606615</v>
       </c>
       <c r="C25" t="n">
         <v>1</v>
@@ -769,10 +769,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.1869842163850831</v>
+        <v>0.1043092275492984</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -782,10 +782,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.1649467995747287</v>
+        <v>0.09192056229354915</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.2548320106464048</v>
+        <v>0.1717763287544199</v>
       </c>
       <c r="C28" t="n">
         <v>1</v>
@@ -808,10 +808,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.1838155562061001</v>
+        <v>0.08747691312893863</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.1455301944565695</v>
+        <v>0.06450967741542374</v>
       </c>
       <c r="C30" t="n">
         <v>2</v>
@@ -834,7 +834,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.1490243576154148</v>
+        <v>0.06985293737744432</v>
       </c>
       <c r="C31" t="n">
         <v>2</v>
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.1496283392209862</v>
+        <v>0.07703882408952155</v>
       </c>
       <c r="C32" t="n">
         <v>2</v>
@@ -860,7 +860,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.2978911759918708</v>
+        <v>0.2656213135465063</v>
       </c>
       <c r="C33" t="n">
         <v>1</v>
@@ -873,7 +873,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.2329227555965667</v>
+        <v>0.1786932185669706</v>
       </c>
       <c r="C34" t="n">
         <v>1</v>
@@ -886,10 +886,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.2340418277296354</v>
+        <v>0.1369599947064933</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -899,10 +899,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.195739067714478</v>
+        <v>0.105364705595443</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -912,10 +912,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.2593234727035689</v>
+        <v>0.1238043828202657</v>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -925,7 +925,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.2873582267785888</v>
+        <v>0.1801552205123295</v>
       </c>
       <c r="C38" t="n">
         <v>1</v>
@@ -938,10 +938,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.1740906083620781</v>
+        <v>0.09515722443765431</v>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -951,7 +951,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.2439217395299227</v>
+        <v>0.2056898789871626</v>
       </c>
       <c r="C40" t="n">
         <v>1</v>
@@ -964,7 +964,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.252167711033723</v>
+        <v>0.2099854374346849</v>
       </c>
       <c r="C41" t="n">
         <v>1</v>
@@ -977,7 +977,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.1502765518167221</v>
+        <v>0.07877332615291859</v>
       </c>
       <c r="C42" t="n">
         <v>2</v>
@@ -990,10 +990,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.1782310793980985</v>
+        <v>0.1086876268939417</v>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -1003,7 +1003,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.1351539909101352</v>
+        <v>0.05569171257079083</v>
       </c>
       <c r="C44" t="n">
         <v>2</v>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.3036498330213984</v>
+        <v>0.2406788059593526</v>
       </c>
       <c r="C45" t="n">
         <v>1</v>
@@ -1029,10 +1029,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.2054072618836757</v>
+        <v>0.107352402364013</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.1611912345083151</v>
+        <v>0.07825402355696599</v>
       </c>
       <c r="C47" t="n">
         <v>2</v>
@@ -1055,7 +1055,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.253678215956654</v>
+        <v>0.1805443419610509</v>
       </c>
       <c r="C48" t="n">
         <v>1</v>
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.2416148479640449</v>
+        <v>0.2123287088113983</v>
       </c>
       <c r="C49" t="n">
         <v>1</v>
@@ -1081,10 +1081,10 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.2845264543795705</v>
+        <v>0.1383173930869928</v>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
@@ -1094,10 +1094,10 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.1647993050001338</v>
+        <v>0.08411576694153078</v>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.07740531887838509</v>
+        <v>0.04064479191687972</v>
       </c>
       <c r="C52" t="n">
         <v>2</v>
@@ -1120,10 +1120,10 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.1822521433283096</v>
+        <v>0.08391397672689525</v>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/results/ejercicio4.xlsx
+++ b/results/ejercicio4.xlsx
@@ -1110,7 +1110,7 @@
         <v>0.04064479191687972</v>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53">
